--- a/SampleProject/Common/Table/Enemy.xlsx
+++ b/SampleProject/Common/Table/Enemy.xlsx
@@ -949,7 +949,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1027,7 +1027,7 @@
         <v>30</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I2">
         <v>5.0000000000000001E-3</v>
@@ -1062,7 +1062,7 @@
         <v>30</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>0.01</v>
@@ -1097,7 +1097,7 @@
         <v>30</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I4">
         <v>5.0000000000000001E-3</v>
@@ -1149,12 +1149,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1290,15 +1287,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F9D1A86-93D6-4367-903A-B7D1F5096104}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9613FD50-1727-42E0-8C9E-9E18D62B9503}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1322,10 +1323,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9613FD50-1727-42E0-8C9E-9E18D62B9503}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F9D1A86-93D6-4367-903A-B7D1F5096104}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>